--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REDLO_test - copia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/t35500/Documents/orlandoCabro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD4D52-EC87-49B0-B74A-3A91170A9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA635D-9A81-234C-A5A8-E7774C183B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD152227-84A2-4FEB-B512-5F1D23C3FE95}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{CD152227-84A2-4FEB-B512-5F1D23C3FE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TEST01</t>
   </si>
@@ -104,10 +104,7 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIxNDI4ODAsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Ik95T0hITjJ1LWxiMm1nZTZ4MkptTGRuQkZ3TSJ9.hmA6LbJxUFLl1DgSZKtyeec8uLXyuNnQ2sBAojpGuKOLsViBfl6cb7457JdR_50N_mvbV4LwgqJ07X09n01rsWRzYjqkdw6HKz9RvatqkDd588bGcXoQudOUxso-av55_D4Twu7-qOn8F_RPLJ7tFQmH6p8ph9rkU-ONPvp-D50y9rbuiDObJl9sgtdlnKVcwKGiwXWS9B-PYvm-KrTKGrPTwOEKuHGqoKkyElkAswJqD3RSXArnErXArhUhDwaNNiN2BdarnWIVpss906VGTphDcXR_DGYjZOPVG24g9_zQcJyxexfbcb3ioBE_hBigmzPwMOBK93G2P8ZdV7pESg</t>
-  </si>
-  <si>
-    <t>eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIxNDI5ODYsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IjRsWTYwQUpEZWhSbUY4b2V2VUZQV1lXWlRiTSJ9.ImK9QyEZZkhiy5a2LAHV1TsYEqM0LuOcBlIiqzElkTIastW5PmDuEIVA1DHQ1Y7mucbJsZYnsfMSboCjvoLjwy-vZPfGn9UPN4ZV9n8fR5u1pBBWSmAPB49wb-ARby5gR20XUaTnGm6x6BuBHneeNr5WJduyh3ZXvRacxcos9eNE1u9Xb5FQrNVT3RqSgHKS_fQ247jQtcEJNR9kI6swTcj2g6AMn_c2T0EBn1bXElt1IwbiuDz370xFMvW8ZvIFuPSZPWdiCV53Q_q9FtMHFABqqPDCebMMh8lRtQ9GHLBUCvrcTlkQCBSCLKRV1W9Bnnpb-9N-9eYevi71Je-DNg</t>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIyMDMwNDUsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImdSVGRYTDdwRlFpSjRLNlExeDVuSkNPZTNVSSJ9.begynN7oLUGfYwZ6H3wHwMnQ-CbHvBe_Ny-cVFD10m4fRtsk-wbJoYGepEjDg-AB9_LWC-1tjaWv77fC3p_l69zkAI0iH2ZnXNlLGS5VbY1SVM1SjNPFEXWWcHmR4TPFw1Cy5vOoDBOLgJj3xOSNThwH-YJo5LiIZXVNciWuRvEqbBT_FHytTd9n7ltYjCxTIZ0C0FfLoedtFf40nOjPg4YT56BPD5i_MLjjWui6wmPHrWXbw65ceUjLZG3_vdGU8RW7sU852WhfJAT-BdkvvO0mCR8Ecjx2NlwED6ucnyHv7YLiVvkeBuSPgKsMf3z7i9fkbPNOkRS-855cbumIKg</t>
   </si>
 </sst>
 </file>
@@ -512,27 +509,27 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="41.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="41.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="19.6640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="10" max="12" style="1" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="41.28515625" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="10" max="12" style="1" width="11.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="41.33203125" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="11.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +558,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,48 +590,48 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>

--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>TEST01</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIyMDMwNDUsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImdSVGRYTDdwRlFpSjRLNlExeDVuSkNPZTNVSSJ9.begynN7oLUGfYwZ6H3wHwMnQ-CbHvBe_Ny-cVFD10m4fRtsk-wbJoYGepEjDg-AB9_LWC-1tjaWv77fC3p_l69zkAI0iH2ZnXNlLGS5VbY1SVM1SjNPFEXWWcHmR4TPFw1Cy5vOoDBOLgJj3xOSNThwH-YJo5LiIZXVNciWuRvEqbBT_FHytTd9n7ltYjCxTIZ0C0FfLoedtFf40nOjPg4YT56BPD5i_MLjjWui6wmPHrWXbw65ceUjLZG3_vdGU8RW7sU852WhfJAT-BdkvvO0mCR8Ecjx2NlwED6ucnyHv7YLiVvkeBuSPgKsMf3z7i9fkbPNOkRS-855cbumIKg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIyMDk0OTMsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Ind3X3g1YnhRcVdTMUxnM2N2N21ZbmRuaUg0TSJ9.QrA7_dtgbGxGfsaTzRIhJJQYsgT4A0nNcIijzTjjVXhrnngAigg1tL8vvzt_rTAavMnC5Gqy62IbWUven3uCJvhG6Y3abiG9Xe0s_Nyr5lfuwSNsB5Y9xvBjxArIWkZpHUIFu5ukkl529dZdi9X4oao90XO_AGTty2fkgtd4SWFM4dk3LIlDYcFibj_RVG73IA4HLNrlVkzybM_fJ9zBbcGzQXRPUYdREFbnIgMNZEUGQ6vdbW3dDp0Xo10K2eZ2r7qTzC-MgXYRLQaDIy4NFvicWD2LRoZw5SB0PSIf7_Rced9vo8pBjGuCSmRvDWlyKaSEHqOTu6sDq1oMHX18Pg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIyMDk2NzgsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6InNrNW9UN19wQzA2OVRFUE80cjAxV2pVM3RqYyJ9.YpCE4CWjkTE1oNPOxUbn0GaW-HfvQGDWePSsI5p_mJRIWBfGoz9CSV1SO2lIzF8t1oZw2zLa94OKIlBBLyhu4EbfHukopULuV5p1OEl0TcfnV5rplxO4Kly5_CRoHdxPuLVsdbF6LhsM57ecLjdAvOSEKAM22AaVwwpz-WkGvkeeSXzeygux87KoqHPMuxB4lG-pO962vauOxG3PkMXoXfUfEz7Gr-B4rld3tEijzXxIXvSLfoxaM6otBMZdv1b_g0O9StiH-OX6Hi87fxUmcheS8MqWh487FgZt2LjHRZgFBjpY5v_uvcdm7HuN7RcXA7cXcdmO3I6aGn92ZtLhCw</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIyMDk5NjEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IkZvUG1QSEE0bU5YaFUtZGZDYXNiVVFZSmw2TSJ9.CCngVyLka9ztkLxASF3n5SAK1xDuFEe0K51w5Po5pFc0pAVb_IV-hjeyOCnU8DRq3QZSkpzQTUY_dP0RlVxDJnjf6r0fUqhgi_NpBS-JLzpdnuN-BhqJI_jarB2KNkHSU6PqBw7Latqj9w0YPGBE_HTpjxTKZIa_RbDnRm9zrgePwX6wJj0xHVLkIYOSB-_YvrAgwrT0IUFQsaSZ2ok6zqdZLBbGvg_1twfLRjBR54a83Gu6A7fADzaF-jH9yhduK-cgIxTg5S-uDsd2RtFpOVjPdSGbfNnZs3F18qtiRRBNx6_JCooagZZbzJJ-wMtCyIqOdt_opAWiovknxbor8Q</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIzMTU4MzQsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImhzeXp1al9wQy1Hd0J2ckxHTHBqQjlEcXh2QSJ9.Zjey6Lz-BwOXq1Q-e5lUHvFYuwT9qRkORBlPGAhzp5ypriK2Q4UPZ0QTsjzbINhINKs6kyF3xutQ4kdJiLb_hh0QEV06igMu_alAFFgzuW49YRNk3bRJ0YtHqN7oEnBuGFteU5CsloCK17obYA_5sfyo1LfJSNwB_GLpGdGDUnQTkYpopFFnbmPtBK93DTo1ARuPAfRwy0uYrLWxbY8K9UPrEcvL0553fj8mAfSQ54CRoe6E38EvqxR-DmI6TA_ik0jrYZArY1u7f6ItiEK16LprTh7BgJyqHU9g_IVqst9Iwlh8pQ45bp-VKjDkKepPeif8J9O3VVctmsxYMTvJPw</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>TEST01</t>
   </si>
@@ -117,6 +117,39 @@
   </si>
   <si>
     <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJDTmlPd2hSOVY3Ykg1bmR0cXpkL0pkNUlwRGc9IiwiV2lVNHZwdW52RTl6UXplRHBPdDJuRFBlSDlNPSIsIkVMWW4xK1JKQ3ZhNnEzQ05RWmFPNlJjdjRBcz0iLCJ4WWIrSUw4UTN2c21HQ0tFcm1jaTdEWklUYWc9IiwiRGg5eTduMlkvM2dyU1F2aTNDRmEyMTJjSDZVPSIsIkRTL3V1WGNvYVBwNVRqa3VoSlQ4QWhlRTRQMD0iLCJxc0gxbzNsVDErV0NhU1loODNiVWExK2tKOFE9IiwiSmhQRXZuTmpGOGIwWDdtdjBNdjRVWWpVWGd3PSIsImVzYlhlUU9qUko4WWZmNWkzL29yWEpCQ0xNRT0iLCJ0Qy93VmsxZUNyaGl2N1VYTktTY05WVVNhY2M9IiwiTmFBQW82bEZrdnpCOS9PYnJTMmNLQWFsSVAwPSIsIjN3Rjlrb2tYTDVCK2k2UnpuVVh6MW9KTkxKTT0iLCJiWmg1SUY1d0crQTNDdnFzVmdPZVE3QVl3dTg9IiwicStLZEVpakMzLzNSSXhjbEZ0N21PZGlhU2F3PSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJhcnJSY2p6K2NzNTd4TVdVS1Z3TTdpT2sreXc9IiwiK3BHT3NDVmZSUkU3SzNJS3BrdDdIU0ZBa2RNPSIsIkRSN05YU1k2TXRwV3ViM2dCdjB2VENvUU5WWT0iLCJGd2FhT0gyTkYrY0dwWEFaNnFrTnRMNTBiTlU9IiwieWs0NlBzaWFLb3Z2U1NmWGRXcmNENjF6QXRnPSIsInhxVnB3blN4bm1ucGhrOWZJY05jU3lkQ3RUaz0iLCJzbGpxSndBNmdHY210Q2lKYlBramhubytOWW89IiwiU0ttYkJPZC9lY2hLc1k4a3hwY3h5dklkb1hFPSIsInNRYzFmc0I5NmV2RGVCeGZxVDBrSEE3R2lsMD0iLCJDY2lONG5nQmwzcG4zd2hJYjk3MUtOYWZXbDQ9IiwicjZJRjV3UXNlZkFSRVVyajZEY0FYMCtUSWc4PSIsIlZHejlGM09mcVR4YVBZTEZyU2dBUGVibE1SOD0iLCJ4a25hQUVGay9vYWI0Z2NDY1d5QmRIaFN2R0k9IiwiKy83TmxDdG9UVndHOWVzMDBvYzBsVTZLZDZzPSIsInk1dDlXRlRpNy9SYW8rWU9OYjRicnh3Q2FFaz0iLCJFYldGdXJqMlZvMWtBNjI4OHRsODQ2T0sxZ1E9IiwiMm9TZ3JmdU9wbTB3QXpqNzhXbHA5eWoyQUJvPSJdLCJjbGllbnRfaWQiOiIyMDM2OTE1NTM2MCIsIm9wY2lvbmVzIjpbeyJncnBvSWQiOjMsImdycG9EZXNjcmlwY2lvbiI6IkNPTlRSQVRPUyIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjcsIm9wY0Rlc2NyaXBjaW9uIjoiQmFuZGVqYSBkZSBGaXJtYXMiLCJvcGNDb250cm9sYWRvciI6ImJhbmRlamFmaXJtYSIsIm9wY0ljb25vIjoic2VhcmNoIn0seyJvcGNJZCI6MjQsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJjYXJnYXJjb250cmF0byIsIm9wY0ljb25vIjoibm90ZV9hZGQifSx7Im9wY0lkIjo5MCwib3BjRGVzY3JpcGNpb24iOiJHZW5lcmFjacOzbiBkZSBDb250cmF0b3MiLCJvcGNDb250cm9sYWRvciI6ImdlbmVyYXJjb250cmF0b2NtcHJ0bXMiLCJvcGNJY29ubyI6Im5vdGVfYWRkIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTIzMTU4MzQsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImhzeXp1al9wQy1Hd0J2ckxHTHBqQjlEcXh2QSJ9.Zjey6Lz-BwOXq1Q-e5lUHvFYuwT9qRkORBlPGAhzp5ypriK2Q4UPZ0QTsjzbINhINKs6kyF3xutQ4kdJiLb_hh0QEV06igMu_alAFFgzuW49YRNk3bRJ0YtHqN7oEnBuGFteU5CsloCK17obYA_5sfyo1LfJSNwB_GLpGdGDUnQTkYpopFFnbmPtBK93DTo1ARuPAfRwy0uYrLWxbY8K9UPrEcvL0553fj8mAfSQ54CRoe6E38EvqxR-DmI6TA_ik0jrYZArY1u7f6ItiEK16LprTh7BgJyqHU9g_IVqst9Iwlh8pQ45bp-VKjDkKepPeif8J9O3VVctmsxYMTvJPw</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4Nzc1ODAsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IkJ6Yk5KdXdVY3ZyN2E0enVKcUlRQUdSdkl4QSJ9.NMQu7uGB5nP3Jt7Kaet5qFunY1V3YcdNBoP9s-wzuBKE1DcU5vbl0lf3ut_FMPEv8q1pW6jWGujrU48cH_TdSf57UHaGjtFImsSRmBcF7wZvTp6dldg7rcqw6tu1gf5VsJ6CjDakjcTyIUVk4k2Vd7k6TXmyKiXWOK-AnGDLqS3eYXwuTa7tGTpSU5YPolqtJyy4fa2SoltxNPAG9sYMVQJx8bBZkd1j-trxjfJNxuQEkyoqbSMi1v8FUjAJV0PasTqYM9VSZw8_5-FVE-ugsLBZL0ULEVi5VVwXEAAUAmd0YKYyBE2T8obRZAyhzOibWmgRzbb7wyBMcYc9Aq-sUQ</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4NzgwMDEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IkhCd3d5a0tjRnluOHpnMnF5TXpBQUt6SjVaVSJ9.lJ-Cll7vSzXfXVEjNzQ_m0YSStmbtg1tYEETF0Jg9DnqG9QdffVO0JR3I_aNFW6aga8O1-Ph33IqJcvdDSbdTr-ZntBNeaQCoIAgVYkBRLx7QOitwIaxPOKYiPyyWiPlbFopU6mFeOoGh6CrnpqUgzF7x2cGbLppJcP7p6ePUHpLtsLDgvTBrmHZJL9Sqhg-mx0Ap-CTD6s4kM7EcZ-6BKM9Il8BTgmuk9APH4bkVmQL6IrhQDjKRtLlzCCG3dq-1h7slUiqDfIqbk_LV0tg7tMaMggjuy8DQsV04FSk0hJ5I30fHS3xlZcbyBCiFY3N102LGf5V8hzxwlBoghDK2A</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4NzgzMjMsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Inp1NVZPOUw3bnFWLTVqSUM2MHpuc2pFWTVPMCJ9.eje1UXVRx6VaT4-li4Gxg_vN69e21h1VXU4h98mFvzWydFyi2sLv5vpNIzIMGewCDawOTbp0fVwoBBMr2tiymUwina8nAvjcxjhvTUUDqYTUig-aTiAuJH_oU0hrZJNv-xEB7vnbHyNDTUbB4g0JTCXEtZzS_d4Xk6oKb2-FXbmlK8P_EtyKIJVJQCxyrQkE4smJLzXNI_x51wuGTrB4QFFnCo2RxX19lrZ-leG8BQytsitx52_C4GQY0AoYjRzlKy2xqIq_-RqQZF9I7VPuJA8Tgl_4PJkE_2qHBudmKemaFbmXrG0fLwpQGCVSNitNzHYmP5SwmMb6wtt4_4KjAA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4NzkyNDAsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IkJEaDk4aDNscVJsdHNQaHhvWi1LNGpIcWdfYyJ9.KzECEkjSBzuk9NYSgsG8aAG0mzH66VB2JuR5yfwQueLnrSdEt3biG28OClR1xuw3oyCAIJ-MbPOTXcewls0hcWjtgLlDXgB33yoA7cNneW5WmCOn32YR5w6yabe7lyIuvChNx4fpzicKP25eVcL6oDieiv6u7jLR7ziCkxc0mLaWLlmRMe4J0nUnxNoxEsasbM7pC90YWQMAqeiitTCbU26WfkKOY4thwuhKFkR311D1BCFwztHAvYS-NtHhUQr5fReuKfyOYNyIwzzZK5veJZVtjuL_VgpWesvPBJpPqc80GkKPe_-oYLW5jHhzfCBYZqP9O4klNKDbiIhAZpy3BA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4Nzk3NTIsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IjJVU3lqeW1jQmFpejRoNTh0b1lTZ3NlbkJJZyJ9.o08nkF_tHXT1viJDa57K35qnmVITQ93yhyKCJDFVSDnluHOvVIjJksiEnxIRfJi-PLBfuJhLZmfrRknRaSSQp_Aq3m20QjTk-vgOilQXejVkOdqV-RZ3pnIRAXeSKKODPAI69vYXZbTkI9v81cYJWP16PqOdBuNYAv_oeS8v3b4EOjkhv7GKBYGO7OuyO3KImuu2Rel2R3fGS9MXBkEWIln8AED0zDsqLE4OUOEoDvxFHcsY1-54rQckP3nVraQNMVsEd4f_w0pkZzKWK0COcTr90q2SpWVTdgZyK4fnfo49Dih2Y5sZyemoPaY3bdQdDelWqnzPRdZD7lzhqqdH1w</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4Nzk3NzEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Ii1aalBzYVpMRTdfRDBTSVIxamtSSkNfMGFHNCJ9.bkr8dcu9gY9v2ZaPHo3dKgwiaGFHO6bWQzVA0ivjonHctUsaAZ_s5AVSLuKqq4RAPuOZVQmcCNVXNw5gHwwfEMCqEDoDoAC2MMNEjA0epqO_2h3st4RW0hTjtZP21CfBRudtIh2uqh-veKIS13jjQT0W54N58m6I8tGdelEXw1QamaofgLCV-VQzT-MST7FCMEnb8mc7X6z6DrHco909KTDwSByYgDdBnaWi6IAWgj-p6uX2SQLRRQhuIp2ufpaVtG_DE4WaLh53ZX47SZ0xZhG5wjg9T8uoTHT2h-EgZht31lDPvGtF3QknOaGKR2xWIXiyzvMNi37ZMC8CQMe8Ug</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM4Nzk4MTUsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IjV1NmZTTjJzc3QxVmRUVXY2RlFWbzh2NWJRbyJ9.shMh7KW6V6wb627uHZ72rBwCqvp-gTUG_3GAmWiLyMsS-3BdP4swu5n_SFuA4lRsW5rFxB7TQRlq9jeZb9nmKQ6p0Wm9H0fGnZo6wObL_oJB5oMSyMd7Bux5qTqb_7tA5csrRsJKBOQd-3LBGCTILD5-R_3CWi2zPogSLmjbyZbRJEUePsYh0_KFaNMj_Ek0T7En0d9mRKKXQ_LQ3Ghktrip99kyRVQZjipVxHGczgK_ymGlb0rHBf2mzC3ck8dS9xfQTwe-fjN1uOqJ7rEF0XCkvER18xefWwtavAzbdzp5EzSp8J2JRblbPqwHaBpxeO7-uzyJPuvpURTyoblWCg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODI2ODIsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6InZBMjhsZVhOWG1MMXNPSDJHcDNoamgxMDZRMCJ9.pGWEQlOsKOwEiderGbYi8n6Hczn7P3nkz6eMwB469uHHNkKfwOQ1NlCIynPB2zBcPg03BrLypo4pPXj0tJTVwW74CPnDPUyjiuXbe5vycrKv5M_VFU_E8DV2Lt3JKSKUB2dyJuejI0uwv8gu-fKJImPoWf4rqQSF2X5mq_m8UvxztIlVQtuxXSTJGDwE-yPZxD_06vx93wWaMidYDAygnSz2QqxdPMDmLUO-nemZR-Co_SG3O3DF5TMxV3eLLvtMJxRrPKIwoXyWFyq-9P5f6mCfA0XhqAK6EWbj8GsTc3AkQFVvbMigtXIOVMf9YzaPbU_FeoEx-XDaDG74b4laEg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODI4MDEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IndqUV9OeVBqOFB0Q0Q3OTFFVUFKRk5Rbm1sYyJ9.MmJ51n9lkzh5FxxDHTYT0mObTnE4YSc-bdul8Z_zDQrEYCTcqb54KVNexu1hgISWiJX_gsZobWBvIBSFq9nurXShWqnCKUgEZuLuh3kXePrWVyuK442WcgC6VvHhboG6Od1DHhmw-v8c0bZuZimyyq-fO2NkHWVS6LYpW3iidQzrGl3l92Okrl0jwXwbarozLqQUGvUCc8BciDSwJ1vw5dIwDJG3Wbya4eLmYyx2fFBL869aQ_0Rd1emHQMnfgRzFnUPrCbySrTUFGyI46lC-1GFUZcP0qT-ndHR5fAdTsKy1yRyQ180yQ18Ki421fuxjXwCRA-RDLdqOpW0BeERbg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODI4NjgsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6InV4ck5ERXBvb1UxVEk2X3o0NkJ3QzNMQ3ktOCJ9.ncL2nFKq6gvU0EXaxomAD4zWJlP5t_124yHifoBxASzlBDRKMsXgD9xnnAlAJVCuJr6RmLsHXES8IpEpLLAsGx6ZqnmnyQrj-w-EUWzvWphj5V34-l8wdg3cWl80RZb1qpYdOeBnjQEkclqmtrtH8kCK6Ykl6FVEIBVkovplQ1beGWU7f4X8q5KLvq9gA8b1oMlHUpEav4suwc-XC2leLb9xEoT7VwAvrvz9DnYh11j5oB0_W4xlPXTBJRC8UR-gIbhBdE6raHzsrehXE9Q3BJrkohS7Ocw-Kwp7shwsWLHarhrgg0aWbBwU5pE2WNG-k9HbIF1IrJeNuXSbb8YvwQ</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODI4ODgsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImhTaFBnM3RySmd1U1BzOGZoMVhfUzhDeVUxVSJ9.Vcx0LE-rypWf-UWNoMHANPcVdl8amrq-IttRAx-fOeaCrdGL8e9CeHIN3sHzsr7UdQXLyJNYf2pBC9F4NjlIQSHiyp9vkyxA30EqkAjpySQPHruViyh4MupUfY6Xwbf1TdbCKXuqqUpfxJghdYctC-MW6jRbQk3Td2PdO8SH1Wqf4gdoQog5BfNge9yBhbBFFpWEe8pEqi2i5gpHNsCgVsMRefBHrERw8NnTOMAumc51456osCM5nFSC7Hrc6gQydMYfrIZVan9hz3MbpC_-kIbdDUfr_tZV-gZoQ_doQsSha1mI4dyLSyQCXvY8007r_BO3yInFGULW2zxthCZERA</t>
   </si>
 </sst>
 </file>
@@ -590,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>TEST01</t>
   </si>
@@ -150,6 +150,45 @@
   </si>
   <si>
     <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODI4ODgsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6ImhTaFBnM3RySmd1U1BzOGZoMVhfUzhDeVUxVSJ9.Vcx0LE-rypWf-UWNoMHANPcVdl8amrq-IttRAx-fOeaCrdGL8e9CeHIN3sHzsr7UdQXLyJNYf2pBC9F4NjlIQSHiyp9vkyxA30EqkAjpySQPHruViyh4MupUfY6Xwbf1TdbCKXuqqUpfxJghdYctC-MW6jRbQk3Td2PdO8SH1Wqf4gdoQog5BfNge9yBhbBFFpWEe8pEqi2i5gpHNsCgVsMRefBHrERw8NnTOMAumc51456osCM5nFSC7Hrc6gQydMYfrIZVan9hz3MbpC_-kIbdDUfr_tZV-gZoQ_doQsSha1mI4dyLSyQCXvY8007r_BO3yInFGULW2zxthCZERA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODMxODAsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Im5hSXpuVzFqbGVWcWJVa01zOXUxcExTMWhXMCJ9.hhGKjoPFgJ7u4CohjHn-jYHsuObs2jZxKkeCT0ecXrEZ14EwDh0uTq_MBdZ-f6cCGSwXfAe_09qsLlv3-XN3DQTI1GCTLTtfGdqF8bEMY5ets-o_OdRb7c736m3JaLanrUXfkXzGz2W8y7vr43vlsccBt8iJJXSDEwu810kfcI80YL2fLYWY4HEY2iVbgDBCl7FTYPD1F8vb4dG5WoLPtTbnBJiVl8G4r6s3x1o2X-L5-yoRiex6LZ_CTRiGkTdaedBK5JIRRhbGF0Gaob2EZWnEf80r5y193B7ZNS1Oy2gcAFb4B14FRKueUiq_yBafeVwj7njZc2wlU4uv0L-DmQ</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODg5MjQsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IlVHSE9jTzdPSUVqOUxKd1VpdW1kSmJubFhpRSJ9.Gf0vahbQ0pOWF9mRIz_Vb68rYqnEk-VCYA-O67QMJZ5K9eHefUVDYVIGwbnIooX_HYVLw9iHGId7H2LnV3M1w4FTtsJucOGix6airCmLyiGVaAyWskIliIOFPZ1iPBMR7vXkICMDyDkixLGtPItu5dUyOtouzQBEkxUDeYkHEghuNFKhEg5jlBcznvtOiu_eIEhABX4XSPGUz9IrQ9UoSkzQdLQOGxRyr5Goqt11OVXlVXX8fAdbZETiCLoHUYoDDg8o4SyZRIGWsMZ9XXmGzGndCQNyOGasxTpkKzwWBsVN1kTLG8_WmC1-pfW4voqB3i_6icUd2XsiYbS-vdEJwA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODkwMTIsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6InN4Znp4U2J2cGVpWHJNd000LWV1c0dTWkh1ZyJ9.knQnWEkgvOL_QTDDLm8vTmgRE6XOMMBujw7z0OooGmL1VzTZpnkFDSXR_Qwm3N6BgokWDwwxsSZvPXJKzQms6og9AjWK5b0JfCgCcmRJYQXa_GqQ5RzmXqq6mO9eR5GKDhD0S_NBX6bOoOULpIvROINkDXhbuzwdoYQzHVPkh_HKpl4EGp_NJgw95fl-7fB5s1PpSH3OExWWA20sBo1NJshhlxB9l5_OpVEZFuiMawINgez0vbGBGfvhRUfxHMPtR7Lfhf8_6FMvoeRRg_E9P8vV2pdjTBjg0OVmO-Ep4RMFgN2wvdMFEhqyfLZUfaFqsGBBW1wCip4bHbrn6ACwrw</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODkxNDUsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Il80WW5CRmhWLU80aUU3aVFfdkw5YnMxR3RNZyJ9.I6aRbkjUFyQpOrmuau-VLurfdh9VOnm1Q0ZtgU_UDO3Mf_cZoBGIAsJFe0He7PjDBzQIXl_itDalw-3-B1U3v_TWrfRfWLHw2rcc8oohAWuBHu5lLVkch2_TioXFAykjxd40HBjN-QQXxNmjqNHCt0GW-gwWknwSa6u_N5o37vDZmW6MO8LV7TqA61olvUTtcgLPB9L34bC0MSh4VxPB86xOE5AfY0jAwbrPQtgdeTetzOVI3JO6ralzrydk1cYXs88UsRmDaAp89UBjjX2h0LruZhy7B2TuJ6d2pafLkHR0zWY0gt62tgWv7CMaDXvG18MjnnYERosmvDe7R4280Q</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODkxOTIsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Im01X2dkS2pCaVNxR01LYlBaUHh6RnFvQTgwOCJ9.pktGj0vo1TOiT9bZHfyIvAFU7xZZTt9bbdpun790UlGmpIq0IWGXBbobfVLdE03KmPLFkYZw0cQO-2nA7wCJ_IeBUpOg16cHS_JU3NRM8W8dtj8iVjgjgZq75aqxkXcAdQ9dXea1KuuHOxP7QDcU89y2r3OIDx-mVJhxoBMD-BeslVK9jm_FEPDkCNyv8G-CxS8uVEX9nXLpVhyew67IkWemTiVe96CTx8RUVPMKD4N93hr2SAsGWWeS1-6KYX3m64JNnuDHFnbgjmzfZdonFOvmZFN85itj8SWm8Ra0oi2Hujo5a3rzZDYYLgh6zQp7Xh31KSh7MvSOFCjwpSa-tA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODkzNTksInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Ik9JNnNsNEZlZlZ5UDFXXzVQMVBRa0dOeEo0RSJ9.XKXkVFMfMfM7AftRSMNZwq7i2xHuDz_T63QZ0y7N2DONhTYMP1_CjPwfytpFa2g3BIOHpHRhfMHECUARzZ-6Fv_Atln4Dk5MN8f_2L6py87WIN8zXHuoVbDMpIT7Be6oDJKzLdOjaJ8BW9JIj4X-2AAF2ivg8ck56mzXVT3Y7nei-r28PX1bbxDXDRvwXXKdy2ho8irt8h5ILRaU-EsWRqpLaNGEAk1u0VWqsJYwK7IyO0uCCSlxDW9LkNVAwtDxxN03akxvspCi7rU2FYDUDKm-i3hRtODB8YwKUUtP1kyF8cX9YNGR4lFGkZkcOAIUT7OwPYpKGTP6EzLr4ASu6g</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODk0NjAsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IjllQTYzbU83blhXUm1ub3JPZTJWcmNIc2tWNCJ9.WFa7fbelHBCa_rC5isA85uxHKuCFj989SD1JrAAnLfvnK0LCoiVqtjO_6N20hySZLwyIJE_EpRBevyl82pJlrrvVSt87UGJ3ZjARmO8CoL6HbRuK6H2G-x3eMjTQ2rAHXA0fvZbF6uQ8jacmPTpYh1EpJ1GkAwWPMDkTpF747NcPx05Z8l9ahONT1oT2SHWHNOY9RyXPPJkRX2ZVkZx149va7327RisrNvbsa-zgRakcSzrJv1vebiCR1KM6dypz4_Jh0_4cWKezr4ii9tlualue1BvRUb5JhXB7owZy3r5yYpmRHTykWEBf_pXpic5MtoYQTAqvcLuzXzT_gj1Cfg</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODk1OTEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IlJhM0x0YVp3dnpSUWwtbDZSMHBsb2E1NW9lbyJ9.j-7QKflHFnWeDMmtBt-wOx9yVO8wNeHOqua9ZhX6IiFiTDu84esRAWGUP6qYzwL-aORHlCPfY5ZEGBTq3Fc8MvaM5H6Kimpk7BVo3V4osVWdqdOEcH-9Aktjl-a_-wXvcRsVKasPd6L6WhUqa2Ya2cVFRu_s03OKFcEhK32gwPoI-BtS74Cm351Hk96IzKpFuxgVPV4ZJ0hxvnjs39KgBuSHMbFZlQBQWylMvwxGGlVPjg2oLdrIqXFdDEQ0ekXI0ve2ur_fO77bGNGSLMPuiLvPR95T_APcQrqwgwS7UhHUP67e79na2tRnftqEQ5y8o3I282yfsqjTOMVJlqPSdA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODk4ODgsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IjNib0ZsTDBfZ3F3Y3FHZVFpQ2J6aTlFZnlZVSJ9.XKsIQGuulNSd3yb8IgyITPMNE4eq8YqWKN6uft2KvwT_lkHwnZ5BbZzCFTYjcnvIT3U-Myt4R7V_1TlwPlpqlP7AjhicDZfpZyTjCif7yL3dTZk3erWiTRqtuycPnDLASPvVvwe-Gy-TBjME2HuVgyFiKCwiJUl7W1jygBJOuFCeb7wh4NPMTdnvfGI8iO4628ouhLRnx19oK7CmWUCF-5mLviUO-t_U7WAv7uPodUjQdoTMUlZ4s5Fo6RgMVXSO1PkU3P9RwSbHaX-Br-GSJDQPX4cCwceUhyC_ga1i5TBAbC2ShWkLCTpGOqhIk4ZY2z6xce-JDCZ_VY88Nppyfw</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5ODk5MjEsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6InpaakYzS0p4emNTZ1lfSXVuZDJhRE9MTkd1TSJ9.kLACy5BVCnb-95hzNvtp6LnK4mFd-Mx5_S3BoY9RTnEv1Kz1k3NxW73Xv8b4Z4gH60oL5V9H16fON_Dkpe3Bxz99SI9t_u3dDv2o9rMASyEe017-giXD0Iquej02dX7LpwJmbW-sXyS5cHit8l5-zjD31h4HlOy_KKXW-vT7iftRdjcUNQ0y2azx_SVbTq_OmI_PqyLH99ijWW0Gv0MAOb0Rw6xbr3nD2qtHhuxIRwDHiPDkI9qDSwXHxdykxmvDNaetXrXzmkmGsXZmOZgyQC4AUbJT8vKSAV3YHyhPLfPKyiQpAgyXoEohupBKfXZCYPKDhbnZMIIgClFte0mlpQ</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5OTAwNDYsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IkJHT011N2xfTnlrbGdKVlNWXzdwZEdXcXNhdyJ9.AqsLXYHBAhFLTMVSiDUPLt8itRjeIbWu7pk-REndvBp6xYyu9YmUCPhlHfnZqzbPpBVCk1Ts47daBEtT90tk8SerU3mIcLnmHYBKpiGvX2jNEJP5BRy_-pbnYliCoqoYDfR5bApIqd7LWaynfGE1CMOUAdbwMUwMVLcndJISFr1CoWzxLbejvOPjhiD_uyG39mhp4RUHyl03ZVi0oXKKeQ4QYU_UHH_5TjSWJSuKG-zCHu7SCv7RTMT6xYLpU4WtLPwso1ghC9aK1jnlVoLCJPsUnbQKFcxHrJXcgTezDQnvDzgL6mHGvUPkqxbcqpGbf3vdmVcKTzfqke8ax5JtJA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5OTAxNTIsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6Ik83bC0zMEpPdTRvcXpXVWN0aUk2dlRwOTJXOCJ9.FdHKM0gElioD_xP8yxCv6ua34LuV8dfAq0reopkJNncyGzTUcoTMkAveZjR9oXUAWDH1azKKltwXDKf7E_iIykc_IGsXDwm-xgu5XvNSbee5N1Z-MfZtp7gxsQicXvjKC5mSpi__dYrS_9txatohdxMsRPUWh222POcwqzqNObL_csXzBQzntG1He5N7D0qrhzl6qrQjMW02fUUcLiw_GAwktH6EjefB1BLCtQFP7G1yFmC7bKDpU18fm3D_rKuUADbeufwSaARue9vVMcugqOT_Xjf06CirtEbcgIa5zUUdAZx9j7-9K6mv9movGqr5W3B_kswOguIpB5KDJ9LKVA</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c3VDb3JyZW8iOiJSTk9OVE9MMUBaWVRSVVNULkNPTSIsInVzdVN1Y0lkIjo1NywidXN1RW1wc0lkIjoxOCwidXN1QXBsSWQiOjEsInVzZXJfbmFtZSI6IlRFU1QtVVNVUjEiLCJ1c3VUaWVtcG9TZXNzaW9uIjozMCwidmVyc2lvbiI6IjIuMCIsInVzdUNvSW50ZXJubyI6IlRFU1QtVVNVUjEiLCJhdXRob3JpdGllcyI6WyJraDg5T2R1b09kcEg1Y2pUb2tvYmhBdDFWRUE9IiwiQ3ZtMXpRaEF3L0NvU29FSWtsL3N3WHY5R1dBPSIsIngwRjRNMjR4b1lxdVhOSGVIWEwvMEIwMENudz0iLCJHSFlkLzVnRGdsWE9IOENIVnYxUytoNW91bjQ9IiwiQ05pT3doUjlWN2JINW5kdHF6ZC9KZDVJcERnPSIsIldpVTR2cHVudkU5elF6ZURwT3QybkRQZUg5TT0iLCJFTFluMStSSkN2YTZxM0NOUVphTzZSY3Y0QXM9IiwieFliK0lMOFEzdnNtR0NLRXJtY2k3RFpJVGFnPSIsIkRoOXk3bjJZLzNnclNRdmkzQ0ZhMjEyY0g2VT0iLCJEUy91dVhjb2FQcDVUamt1aEpUOEFoZUU0UDA9IiwicXNIMW8zbFQxK1dDYVNZaDgzYlVhMStrSjhRPSIsIkpoUEV2bk5qRjhiMFg3bXYwTXY0VVlqVVhndz0iLCJlc2JYZVFPalJKOFlmZjVpMy9vclhKQkNMTUU9IiwidEMvd1ZrMWVDcmhpdjdVWE5LU2NOVlVTYWNjPSIsIk5hQUFvNmxGa3Z6QjkvT2JyUzJjS0FhbElQMD0iLCIzd0Y5a29rWEw1QitpNlJ6blVYejFvSk5MSk09IiwiYlpoNUlGNXdHK0EzQ3Zxc1ZnT2VRN0FZd3U4PSIsInErS2RFaWpDMy8zUkl4Y2xGdDdtT2RpYVNhdz0iLCJNeGFzRzhYQ3JkTFVMUEd1V0xld3FnV1FZT1k9Iiwia3FoaHhBUnBBVHRSUGlta3ZDazRSQTZzb0trPSIsIk5zbzE3QWNMUFYrbHVWemhyMnl5bi8xVmFqTT0iLCIxb2QwMmtaUFVveUtqa3JtdGwvVExEUENSU2s9IiwiTzFNRGdBa0VIRG5QdHMrcFcvL0pZUCtBd1ZzPSIsImo3T2JpVzdDeVVzU2pCOXI0SlhlcVNScjZVYz0iLCJNYkNJc2U0U2lpMzNlRkdvc2ZjWm9rWElyTTg9IiwiUTQrSlBMZ25SU0ZFUmYyWjdHL3VHZmFZSHB3PSIsIjZJb0ZHQU9SSDNHcGUxYmlqdlB4MDY1bVlZUT0iLCJUaGpHeHg3UnNHSkdTc3loaFBRSnNMazJJWDA9Iiwick5ia3FvTDBSMlc4MysveDRaUUV4eUd1cXVBPSIsImdLc1BNdCt5cFdBVk1GRTd1S2oxVmh4WnZuZz0iLCJlWTFHdkpsZXpNQ0xTb0lZZjdENWgzcjRhZE09IiwiYXJyUmNqeitjczU3eE1XVUtWd003aU9rK3l3PSIsIitwR09zQ1ZmUlJFN0szSUtwa3Q3SFNGQWtkTT0iLCJEUjdOWFNZNk10cFd1YjNnQnYwdlRDb1FOVlk9IiwiRndhYU9IMk5GK2NHcFhBWjZxa050TDUwYk5VPSIsInlrNDZQc2lhS292dlNTZlhkV3JjRDYxekF0Zz0iLCJ4cVZwd25TeG5tbnBoazlmSWNOY1N5ZEN0VGs9Iiwic2xqcUp3QTZnR2NtdENpSmJQa2pobm8rTllvPSIsIlNLbWJCT2QvZWNoS3NZOGt4cGN4eXZJZG9YRT0iLCJzUWMxZnNCOTZldkRlQnhmcVQwa0hBN0dpbDA9IiwiQ2NpTjRuZ0JsM3BuM3doSWI5NzFLTmFmV2w0PSIsInI2SUY1d1FzZWZBUkVVcmo2RGNBWDArVElnOD0iLCJWR3o5RjNPZnFUeGFQWUxGclNnQVBlYmxNUjg9IiwieGtuYUFFRmsvb2FiNGdjQ2NXeUJkSGhTdkdJPSIsIisvN05sQ3RvVFZ3RzllczAwb2MwbFU2S2Q2cz0iLCJ5NXQ5V0ZUaTcvUmFvK1lPTmI0YnJ4d0NhRWs9IiwiRWJXRnVyajJWbzFrQTYyODh0bDg0Nk9LMWdRPSIsIjJvU2dyZnVPcG0wd0F6ajc4V2xwOXlqMkFCbz0iXSwiY2xpZW50X2lkIjoiMjAzNjkxNTUzNjAiLCJvcGNpb25lcyI6W3siZ3Jwb0lkIjozLCJncnBvRGVzY3JpcGNpb24iOiJDT05UUkFUT1MiLCJncnBvSWNvbm8iOiJjaGVja19ib3giLCJzZWdPcGNpb25lcyI6W3sib3BjSWQiOjI3LCJvcGNEZXNjcmlwY2lvbiI6IkJhbmRlamEgZGUgRmlybWFzIiwib3BjQ29udHJvbGFkb3IiOiJiYW5kZWphZmlybWEiLCJvcGNJY29ubyI6InNlYXJjaCJ9LHsib3BjSWQiOjI0LCJvcGNEZXNjcmlwY2lvbiI6IkdlbmVyYWNpw7NuIGRlIENvbnRyYXRvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY2FyZ2FyY29udHJhdG8iLCJvcGNJY29ubyI6Im5vdGVfYWRkIn0seyJvcGNJZCI6OTAsIm9wY0Rlc2NyaXBjaW9uIjoiR2VuZXJhY2nDs24gZGUgQ29udHJhdG9zIiwib3BjQ29udHJvbGFkb3IiOiJnZW5lcmFyY29udHJhdG9jbXBydG1zIiwib3BjSWNvbm8iOiJub3RlX2FkZCJ9XSwiYXBsRGVzY3JpcGNpb24iOiJQQ0UgRklSTUEgQ09OIEJJT01FVFJJQSJ9LHsiZ3Jwb0lkIjo0NiwiZ3Jwb0Rlc2NyaXBjaW9uIjoiQ09ORklHVVJBQ0lPTiIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MTcxLCJvcGNEZXNjcmlwY2lvbiI6IkNvbmZpZ3VyYWNpb24gZGUgUGFyYW1ldHJvcyIsIm9wY0NvbnRyb2xhZG9yIjoiY29uZmlndXJhY2lvbnBhcmFtZXRyb3MiLCJvcGNJY29ubyI6InNldHRpbmdzIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn0seyJncnBvSWQiOjQsImdycG9EZXNjcmlwY2lvbiI6IkJJT01FVFJJQSIsImdycG9JY29ubyI6ImNoZWNrX2JveCIsInNlZ09wY2lvbmVzIjpbeyJvcGNJZCI6MjYsIm9wY0Rlc2NyaXBjaW9uIjoiQ29uc3VsdGEgU29saWNpdHVkIiwib3BjQ29udHJvbGFkb3IiOiJjb25zdWx0YXNvbGljaXR1ZCIsIm9wY0ljb25vIjoic2VhcmNoIn1dLCJhcGxEZXNjcmlwY2lvbiI6IlBDRSBGSVJNQSBDT04gQklPTUVUUklBIn1dLCJ1c3VJZCI6MTA1NSwidXN1UGVySWQiOjMyODIsInNjb3BlIjpbInJlYWQiLCJ3cml0ZSIsInRydXN0Il0sInRpRG9jVXN1YXJpbyI6MSwibnVEb2NVc3VhcmlvIjoiNzQ5MjE2NDEiLCJzdWN1RGVzY3JpcGNpb24iOiJQUklOQ0lQQUwiLCJleHAiOjE2OTM5OTA2NzYsInN1Y3VDb2RpZ28iOiIwMSIsImp0aSI6IlhvVkhodmtnNE1jZGlaTU96UFozeTRHM3U3NCJ9.FoKpirZ7sHK-Khgw3Nfzf73UsL5Bm7Yed7zYDNwrkc4zop9RZw0J3CBnenHIWi-1rwxTkCdBK-hsnci9ddZiJwGtKCHhmz5Nt4NCXSK2Jd1sb2N0IDUS-rQqluKkSyD3sezll1mT-_MRqqbNuEDK-gj7gg1pVH6pgu_PboT_3vgVhX-a98zwtmB9G-f7spaWyQlkulxjjjNpgjUR8CPyFyglQ38MFJgnvtTmUES0DsgllQEHHoyljkpgUZewMOZknW94pzWWfK_iiPs3jQ3wE19BChQgW2ArpktVbuoD-fSG9Eis7XvnCxwIN95_5sDZaYuXFPNtyIcovRqP0Q9x2A</t>
   </si>
 </sst>
 </file>
@@ -623,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
